--- a/example_files/example_out.xlsx
+++ b/example_files/example_out.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB11"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,8 +511,8 @@
     <col width="17" customWidth="1" min="26" max="26"/>
     <col width="10" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="2" customWidth="1" min="29" max="29"/>
-    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
     <col width="17" customWidth="1" min="31" max="31"/>
     <col width="17" customWidth="1" min="32" max="32"/>
     <col width="18" customWidth="1" min="33" max="33"/>
@@ -524,8 +524,8 @@
     <col width="22" customWidth="1" min="39" max="39"/>
     <col width="17" customWidth="1" min="40" max="40"/>
     <col width="16" customWidth="1" min="41" max="41"/>
-    <col width="97" customWidth="1" min="53" max="53"/>
-    <col width="10" customWidth="1" min="54" max="54"/>
+    <col width="168" customWidth="1" min="57" max="57"/>
+    <col width="10" customWidth="1" min="58" max="58"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -603,6 +603,10 @@
       <c r="AZ1" s="5" t="n"/>
       <c r="BA1" s="5" t="n"/>
       <c r="BB1" s="5" t="n"/>
+      <c r="BC1" s="5" t="n"/>
+      <c r="BD1" s="5" t="n"/>
+      <c r="BE1" s="5" t="n"/>
+      <c r="BF1" s="5" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -867,10 +871,30 @@
       </c>
       <c r="BA2" s="5" t="inlineStr">
         <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="BB2" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BC2" s="5" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="BD2" s="5" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="BE2" s="5" t="inlineStr">
+        <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="BB2" s="5" t="inlineStr">
+      <c r="BF2" s="5" t="inlineStr">
         <is>
           <t>residual</t>
         </is>
@@ -899,21 +923,13 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>1589.074045591118</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>1652.938809620015</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>399.0569262742412</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>0</v>
-      </c>
+          <t>db_example</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr"/>
+      <c r="I3" s="6" t="inlineStr"/>
+      <c r="J3" s="6" t="inlineStr"/>
+      <c r="K3" s="6" t="inlineStr"/>
       <c r="L3" s="6" t="n">
         <v>400</v>
       </c>
@@ -942,7 +958,7 @@
         </is>
       </c>
       <c r="S3" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T3" s="6" t="n">
         <v>100</v>
@@ -956,7 +972,7 @@
         </is>
       </c>
       <c r="W3" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X3" s="6" t="inlineStr">
         <is>
@@ -984,78 +1000,82 @@
         </is>
       </c>
       <c r="AE3" s="6" t="n">
-        <v>2.290520991221809</v>
+        <v>2.290474337185469</v>
       </c>
       <c r="AF3" s="6" t="n">
-        <v>1514.875049527561</v>
+        <v>1514.905898278834</v>
       </c>
       <c r="AG3" s="6" t="n">
-        <v>1663.588729122092</v>
+        <v>1663.62683021203</v>
       </c>
       <c r="AH3" s="6" t="n">
-        <v>383.8500788161061</v>
+        <v>383.8540077761088</v>
       </c>
       <c r="AI3" s="6" t="n">
-        <v>754.6769316219583</v>
+        <v>754.6840706809064</v>
       </c>
       <c r="AJ3" s="6" t="n">
-        <v>0.5086283451001108</v>
+        <v>0.5086287397450701</v>
       </c>
       <c r="AK3" s="6" t="n">
-        <v>1574.257216124714</v>
+        <v>1574.288972727775</v>
       </c>
       <c r="AL3" s="6" t="n">
-        <v>1737.259170625658</v>
+        <v>1737.298779854921</v>
       </c>
       <c r="AM3" s="6" t="n">
         <v>1.18</v>
       </c>
       <c r="AN3" s="6" t="n">
-        <v>141.1326808616821</v>
+        <v>141.129318733034</v>
       </c>
       <c r="AO3" s="6" t="n">
-        <v>0.001590014766203057</v>
+        <v>0.00159005361890984</v>
       </c>
       <c r="AP3" s="6" t="n">
-        <v>9.520710087030825e-21</v>
+        <v>9.528521981054373e-21</v>
       </c>
       <c r="AQ3" s="6" t="n">
-        <v>4.281270123710358e-42</v>
+        <v>4.291012361715754e-42</v>
       </c>
       <c r="AR3" s="6" t="n">
-        <v>3.560831553782302e-32</v>
+        <v>3.567121068360242e-32</v>
       </c>
       <c r="AS3" s="6" t="n">
-        <v>5.207519591286786e-16</v>
+        <v>5.211792443405015e-16</v>
       </c>
       <c r="AT3" s="6" t="n">
-        <v>2.76716390937103e-33</v>
+        <v>2.771765419635963e-33</v>
       </c>
       <c r="AU3" s="6" t="n">
-        <v>1.883022011317717e-22</v>
+        <v>1.885117226383755e-22</v>
       </c>
       <c r="AV3" s="6" t="n">
-        <v>3.924805675010473e-13</v>
+        <v>3.92784198257825e-13</v>
       </c>
       <c r="AW3" s="6" t="n">
-        <v>1.304813374253803e-05</v>
+        <v>1.305349189790148e-05</v>
       </c>
       <c r="AX3" s="6" t="n">
-        <v>0.001403107586568976</v>
+        <v>0.001403313878763925</v>
       </c>
       <c r="AY3" s="6" t="n">
-        <v>0.766427524816449</v>
+        <v>0.7664274285202659</v>
       </c>
       <c r="AZ3" s="6" t="n">
-        <v>0.2321563194628465</v>
-      </c>
-      <c r="BA3" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
-      </c>
-      <c r="BB3" s="6" t="n">
-        <v>2.347904801158768e-08</v>
+        <v>0.2321562041086791</v>
+      </c>
+      <c r="BA3" s="6" t="inlineStr"/>
+      <c r="BB3" s="6" t="inlineStr"/>
+      <c r="BC3" s="6" t="inlineStr"/>
+      <c r="BD3" s="6" t="inlineStr"/>
+      <c r="BE3" s="6" t="inlineStr">
+        <is>
+          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF3" s="6" t="n">
+        <v>5.458624242684153e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1067,9 +1087,7 @@
       <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>0.18</v>
-      </c>
+      <c r="C4" s="6" t="inlineStr"/>
       <c r="D4" s="6" t="n">
         <v>1.18</v>
       </c>
@@ -1083,21 +1101,13 @@
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>4069.795639211517</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>4153.748027175163</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>639.7479981492821</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
+          <t>db_example</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
+      <c r="K4" s="6" t="inlineStr"/>
       <c r="L4" s="6" t="n">
         <v>400</v>
       </c>
@@ -1122,11 +1132,11 @@
       </c>
       <c r="R4" s="6" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>homann</t>
         </is>
       </c>
       <c r="S4" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T4" s="6" t="n">
         <v>100</v>
@@ -1140,7 +1150,7 @@
         </is>
       </c>
       <c r="W4" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X4" s="6" t="inlineStr">
         <is>
@@ -1168,78 +1178,82 @@
         </is>
       </c>
       <c r="AE4" s="6" t="n">
-        <v>1.140140477770793</v>
+        <v>1.126606980347759</v>
       </c>
       <c r="AF4" s="6" t="n">
-        <v>2788.393950732726</v>
+        <v>2808.402124641389</v>
       </c>
       <c r="AG4" s="6" t="n">
-        <v>4962.791536877288</v>
+        <v>5082.10715187907</v>
       </c>
       <c r="AH4" s="6" t="n">
-        <v>541.4443211874757</v>
+        <v>523.8718521608901</v>
       </c>
       <c r="AI4" s="6" t="n">
-        <v>996.2114876645099</v>
+        <v>1002.472764012991</v>
       </c>
       <c r="AJ4" s="6" t="n">
-        <v>0.5435033904867153</v>
+        <v>0.5225796360429611</v>
       </c>
       <c r="AK4" s="6" t="n">
-        <v>2829.635038642938</v>
+        <v>2846.960073939363</v>
       </c>
       <c r="AL4" s="6" t="n">
-        <v>5109.372513350371</v>
+        <v>5219.32801062231</v>
       </c>
       <c r="AM4" s="6" t="n">
-        <v>1.18</v>
+        <v>1.165569805200765</v>
       </c>
       <c r="AN4" s="6" t="n">
-        <v>63.9372139708535</v>
+        <v>60.73348048083631</v>
       </c>
       <c r="AO4" s="6" t="n">
-        <v>0.003564332843729218</v>
+        <v>0.003609771420464112</v>
       </c>
       <c r="AP4" s="6" t="n">
-        <v>9.821497389486548e-13</v>
+        <v>1.140460357448185e-12</v>
       </c>
       <c r="AQ4" s="6" t="n">
-        <v>9.829883215575937e-20</v>
+        <v>1.549378399598107e-19</v>
       </c>
       <c r="AR4" s="6" t="n">
-        <v>6.494647715647866e-15</v>
+        <v>9.056851132185776e-15</v>
       </c>
       <c r="AS4" s="6" t="n">
-        <v>5.371132142119485e-08</v>
+        <v>6.236861241699648e-08</v>
       </c>
       <c r="AT4" s="6" t="n">
-        <v>6.436743172957192e-17</v>
+        <v>9.005955928818911e-17</v>
       </c>
       <c r="AU4" s="6" t="n">
-        <v>9.693069360796373e-12</v>
+        <v>1.159599606232588e-11</v>
       </c>
       <c r="AV4" s="6" t="n">
-        <v>1.47000657427837e-05</v>
+        <v>1.708802247783153e-05</v>
       </c>
       <c r="AW4" s="6" t="n">
-        <v>0.1014127817188835</v>
+        <v>0.1072239267604175</v>
       </c>
       <c r="AX4" s="6" t="n">
-        <v>0.02685000297464309</v>
+        <v>0.0269111044693095</v>
       </c>
       <c r="AY4" s="6" t="n">
-        <v>0.7545343139832559</v>
+        <v>0.7545034001078694</v>
       </c>
       <c r="AZ4" s="6" t="n">
-        <v>0.1171881475354716</v>
-      </c>
-      <c r="BA4" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
-      </c>
-      <c r="BB4" s="6" t="n">
-        <v>4.718584291357578e-08</v>
+        <v>0.1113444182585678</v>
+      </c>
+      <c r="BA4" s="6" t="inlineStr"/>
+      <c r="BB4" s="6" t="inlineStr"/>
+      <c r="BC4" s="6" t="inlineStr"/>
+      <c r="BD4" s="6" t="inlineStr"/>
+      <c r="BE4" s="6" t="inlineStr">
+        <is>
+          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF4" s="6" t="n">
+        <v>1.465915689397217e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1260,26 +1274,18 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>4711.387700210449</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>4766.152732600755</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>710.8559881417267</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
+          <t>db_example</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
       <c r="L5" s="6" t="n">
         <v>400</v>
       </c>
@@ -1304,11 +1310,11 @@
       </c>
       <c r="R5" s="6" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>homann</t>
         </is>
       </c>
       <c r="S5" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T5" s="6" t="n">
         <v>100</v>
@@ -1322,7 +1328,7 @@
         </is>
       </c>
       <c r="W5" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X5" s="6" t="inlineStr">
         <is>
@@ -1350,78 +1356,76 @@
         </is>
       </c>
       <c r="AE5" s="6" t="n">
-        <v>0.7951170555382227</v>
+        <v>1.389636116511266</v>
       </c>
       <c r="AF5" s="6" t="n">
-        <v>3624.625981513992</v>
+        <v>2670.2982459945</v>
       </c>
       <c r="AG5" s="6" t="n">
-        <v>8041.827344613467</v>
+        <v>-499.3352319102689</v>
       </c>
       <c r="AH5" s="6" t="n">
-        <v>650.8048491817912</v>
+        <v>474.1829097307873</v>
       </c>
       <c r="AI5" s="6" t="n">
-        <v>1260.354795544553</v>
+        <v>888.122969438085</v>
       </c>
       <c r="AJ5" s="6" t="n">
-        <v>0.5163663846739299</v>
+        <v>0.5339158270287758</v>
       </c>
       <c r="AK5" s="6" t="n">
-        <v>3743.316403816674</v>
+        <v>2694.451737348082</v>
       </c>
       <c r="AL5" s="6" t="n">
-        <v>8253.600820472733</v>
+        <v>-386.9105159698909</v>
       </c>
       <c r="AM5" s="6" t="n">
-        <v>1.18</v>
+        <v>1.16785135483749</v>
       </c>
       <c r="AN5" s="6" t="n">
-        <v>43.1108913076935</v>
+        <v>73.26442299703685</v>
       </c>
       <c r="AO5" s="6" t="n">
-        <v>0.005304339459947047</v>
+        <v>0.003040878405587785</v>
       </c>
       <c r="AP5" s="6" t="n">
-        <v>7.647753114448168e-11</v>
-      </c>
-      <c r="AQ5" s="6" t="n">
-        <v>4.022733406463408e-13</v>
-      </c>
+        <v>9.700474285264218e-17</v>
+      </c>
+      <c r="AQ5" s="6" t="inlineStr"/>
       <c r="AR5" s="6" t="n">
-        <v>1.85690275269546e-10</v>
-      </c>
-      <c r="AS5" s="6" t="n">
-        <v>4.182032845043202e-06</v>
-      </c>
-      <c r="AT5" s="6" t="n">
-        <v>5.772965079308566e-12</v>
-      </c>
-      <c r="AU5" s="6" t="n">
-        <v>7.317183443196853e-10</v>
-      </c>
-      <c r="AV5" s="6" t="n">
-        <v>0.00189729642360724</v>
-      </c>
+        <v>2.82905513035181e-12</v>
+      </c>
+      <c r="AS5" s="6" t="inlineStr"/>
+      <c r="AT5" s="6" t="inlineStr"/>
+      <c r="AU5" s="6" t="inlineStr"/>
+      <c r="AV5" s="6" t="inlineStr"/>
       <c r="AW5" s="6" t="n">
-        <v>0.2240770306150991</v>
-      </c>
-      <c r="AX5" s="6" t="n">
-        <v>0.01076614080926237</v>
-      </c>
-      <c r="AY5" s="6" t="n">
-        <v>0.7601576583103129</v>
-      </c>
+        <v>0.06950492669713997</v>
+      </c>
+      <c r="AX5" s="6" t="inlineStr"/>
+      <c r="AY5" s="6" t="inlineStr"/>
       <c r="AZ5" s="6" t="n">
-        <v>0.003097690808811932</v>
-      </c>
-      <c r="BA5" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
+        <v>0.1710485366753572</v>
+      </c>
+      <c r="BA5" s="6" t="n">
+        <v>2.29757369529587e-18</v>
       </c>
       <c r="BB5" s="6" t="n">
-        <v>1.634366971462298e-08</v>
+        <v>1.392243166163273e-12</v>
+      </c>
+      <c r="BC5" s="6" t="n">
+        <v>0.4211407134282744</v>
+      </c>
+      <c r="BD5" s="6" t="n">
+        <v>0.338305823195007</v>
+      </c>
+      <c r="BE5" s="6" t="inlineStr">
+        <is>
+          <t>Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF5" s="6" t="n">
+        <v>4.698149141499829e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1450,18 +1454,10 @@
           <t>db_air_11.h5</t>
         </is>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>4993.61922774637</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>5045.182244556883</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>759.2591773750494</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
         <v>400</v>
       </c>
@@ -1486,11 +1482,11 @@
       </c>
       <c r="R6" s="6" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>homann</t>
         </is>
       </c>
       <c r="S6" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T6" s="6" t="n">
         <v>100</v>
@@ -1504,7 +1500,7 @@
         </is>
       </c>
       <c r="W6" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X6" s="6" t="inlineStr">
         <is>
@@ -1532,78 +1528,82 @@
         </is>
       </c>
       <c r="AE6" s="6" t="n">
-        <v>0.6032594787937023</v>
+        <v>0.5855510800079897</v>
       </c>
       <c r="AF6" s="6" t="n">
-        <v>4560.30031607391</v>
+        <v>4646.174462950412</v>
       </c>
       <c r="AG6" s="6" t="n">
-        <v>11094.87063939782</v>
+        <v>11684.78687346593</v>
       </c>
       <c r="AH6" s="6" t="n">
-        <v>744.268527820556</v>
+        <v>698.5286973740479</v>
       </c>
       <c r="AI6" s="6" t="n">
-        <v>1368.064628323006</v>
+        <v>1385.019314340918</v>
       </c>
       <c r="AJ6" s="6" t="n">
-        <v>0.5440302398088396</v>
+        <v>0.504345816799279</v>
       </c>
       <c r="AK6" s="6" t="n">
-        <v>4626.530131322082</v>
+        <v>4700.212703114736</v>
       </c>
       <c r="AL6" s="6" t="n">
-        <v>11371.83846014991</v>
+        <v>11928.75804399347</v>
       </c>
       <c r="AM6" s="6" t="n">
-        <v>1.18</v>
+        <v>1.152290777356284</v>
       </c>
       <c r="AN6" s="6" t="n">
-        <v>31.70442997742285</v>
+        <v>28.50436032102602</v>
       </c>
       <c r="AO6" s="6" t="n">
-        <v>0.00730925814778777</v>
+        <v>0.007541338370222157</v>
       </c>
       <c r="AP6" s="6" t="n">
-        <v>1.206843528692004e-09</v>
+        <v>1.471821045954147e-09</v>
       </c>
       <c r="AQ6" s="6" t="n">
-        <v>1.810311349394168e-08</v>
+        <v>3.937247608635887e-08</v>
       </c>
       <c r="AR6" s="6" t="n">
-        <v>1.721676650939551e-07</v>
+        <v>2.838640249118396e-07</v>
       </c>
       <c r="AS6" s="6" t="n">
-        <v>6.562205441900454e-05</v>
+        <v>7.984343195147516e-05</v>
       </c>
       <c r="AT6" s="6" t="n">
-        <v>1.886936414907455e-08</v>
+        <v>3.366686978323279e-08</v>
       </c>
       <c r="AU6" s="6" t="n">
-        <v>6.934710934156458e-09</v>
+        <v>8.148120296413255e-09</v>
       </c>
       <c r="AV6" s="6" t="n">
-        <v>0.05141362987617244</v>
+        <v>0.06496131642019741</v>
       </c>
       <c r="AW6" s="6" t="n">
-        <v>0.2310178754274743</v>
+        <v>0.2311961866131164</v>
       </c>
       <c r="AX6" s="6" t="n">
-        <v>0.003322016764540393</v>
+        <v>0.003013462585031084</v>
       </c>
       <c r="AY6" s="6" t="n">
-        <v>0.7140874879822152</v>
+        <v>0.7006771583541472</v>
       </c>
       <c r="AZ6" s="6" t="n">
-        <v>9.315061348152387e-05</v>
-      </c>
-      <c r="BA6" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
-      </c>
-      <c r="BB6" s="6" t="n">
-        <v>2.585329604351818e-08</v>
+        <v>7.166607224421286e-05</v>
+      </c>
+      <c r="BA6" s="6" t="inlineStr"/>
+      <c r="BB6" s="6" t="inlineStr"/>
+      <c r="BC6" s="6" t="inlineStr"/>
+      <c r="BD6" s="6" t="inlineStr"/>
+      <c r="BE6" s="6" t="inlineStr">
+        <is>
+          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF6" s="6" t="n">
+        <v>3.131816476325616e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1615,11 +1615,9 @@
       <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>0.18</v>
-      </c>
+      <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>112.1</v>
@@ -1629,11 +1627,7 @@
           <t>air</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
+      <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
         <v>5185.289861247308</v>
       </c>
@@ -1670,11 +1664,11 @@
       </c>
       <c r="R7" s="6" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>carleton</t>
         </is>
       </c>
       <c r="S7" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T7" s="6" t="n">
         <v>100</v>
@@ -1688,7 +1682,7 @@
         </is>
       </c>
       <c r="W7" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X7" s="6" t="inlineStr">
         <is>
@@ -1716,78 +1710,82 @@
         </is>
       </c>
       <c r="AE7" s="6" t="n">
-        <v>0.5245370936624947</v>
+        <v>0.6318972156021027</v>
       </c>
       <c r="AF7" s="6" t="n">
-        <v>4925.58124267783</v>
+        <v>4417.36022992311</v>
       </c>
       <c r="AG7" s="6" t="n">
-        <v>14346.33996959922</v>
+        <v>10295.37878061522</v>
       </c>
       <c r="AH7" s="6" t="n">
-        <v>797.7474781201531</v>
+        <v>1104.777757107777</v>
       </c>
       <c r="AI7" s="6" t="n">
-        <v>1456.274948724891</v>
+        <v>1344.443697523798</v>
       </c>
       <c r="AJ7" s="6" t="n">
-        <v>0.5478000420309761</v>
+        <v>0.8217359783400087</v>
       </c>
       <c r="AK7" s="6" t="n">
-        <v>4982.67157395678</v>
+        <v>4581.628362501458</v>
       </c>
       <c r="AL7" s="6" t="n">
-        <v>14664.54048902275</v>
+        <v>10905.64572691527</v>
       </c>
       <c r="AM7" s="6" t="n">
-        <v>1.18</v>
+        <v>1.457618625717682</v>
       </c>
       <c r="AN7" s="6" t="n">
-        <v>27.93239719392174</v>
+        <v>50.39773123169963</v>
       </c>
       <c r="AO7" s="6" t="n">
-        <v>0.008404284817692828</v>
+        <v>0.006950167874682603</v>
       </c>
       <c r="AP7" s="6" t="n">
-        <v>2.679839229256441e-09</v>
+        <v>8.529188522270911e-10</v>
       </c>
       <c r="AQ7" s="6" t="n">
-        <v>4.139795156955798e-07</v>
+        <v>4.666383197728399e-09</v>
       </c>
       <c r="AR7" s="6" t="n">
-        <v>1.308362328221537e-06</v>
+        <v>7.21973600657394e-08</v>
       </c>
       <c r="AS7" s="6" t="n">
-        <v>0.0001430223883120772</v>
+        <v>4.649428423825736e-05</v>
       </c>
       <c r="AT7" s="6" t="n">
-        <v>1.895652020790602e-07</v>
+        <v>6.831822087199736e-09</v>
       </c>
       <c r="AU7" s="6" t="n">
-        <v>1.32679356976241e-08</v>
+        <v>5.232535974525849e-09</v>
       </c>
       <c r="AV7" s="6" t="n">
-        <v>0.1301362084055692</v>
+        <v>0.0340737912783129</v>
       </c>
       <c r="AW7" s="6" t="n">
-        <v>0.2316457302998188</v>
+        <v>0.2306613020371153</v>
       </c>
       <c r="AX7" s="6" t="n">
-        <v>0.002179833084642663</v>
+        <v>0.003909844472376712</v>
       </c>
       <c r="AY7" s="6" t="n">
-        <v>0.6358613778336807</v>
+        <v>0.7311618858825969</v>
       </c>
       <c r="AZ7" s="6" t="n">
-        <v>3.190013315568296e-05</v>
-      </c>
-      <c r="BA7" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
-      </c>
-      <c r="BB7" s="6" t="n">
-        <v>1.637479394837151e-09</v>
+        <v>0.0001465922643396803</v>
+      </c>
+      <c r="BA7" s="6" t="inlineStr"/>
+      <c r="BB7" s="6" t="inlineStr"/>
+      <c r="BC7" s="6" t="inlineStr"/>
+      <c r="BD7" s="6" t="inlineStr"/>
+      <c r="BE7" s="6" t="inlineStr">
+        <is>
+          <t>Plasma gas invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF7" s="6" t="n">
+        <v>1.905764389035282e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1797,10 +1795,10 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.18</v>
+        <v>3</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
@@ -1808,26 +1806,18 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>5334.180230546338</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>5387.087863175318</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>840.2739989831688</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
+          <t>db_example</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
       <c r="L8" s="6" t="n">
         <v>400</v>
       </c>
@@ -1856,7 +1846,7 @@
         </is>
       </c>
       <c r="S8" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T8" s="6" t="n">
         <v>100</v>
@@ -1870,7 +1860,7 @@
         </is>
       </c>
       <c r="W8" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X8" s="6" t="inlineStr">
         <is>
@@ -1898,78 +1888,76 @@
         </is>
       </c>
       <c r="AE8" s="6" t="n">
-        <v>0.4693149276717785</v>
+        <v>6.862229631981048</v>
       </c>
       <c r="AF8" s="6" t="n">
-        <v>5162.504709749847</v>
+        <v>2551.206489490869</v>
       </c>
       <c r="AG8" s="6" t="n">
-        <v>17698.8905335049</v>
+        <v>-3303.717162534938</v>
       </c>
       <c r="AH8" s="6" t="n">
-        <v>843.3094215414717</v>
+        <v>817.4208098587765</v>
       </c>
       <c r="AI8" s="6" t="n">
-        <v>1537.85754799381</v>
+        <v>797.8359483961992</v>
       </c>
       <c r="AJ8" s="6" t="n">
-        <v>0.5483664092565652</v>
+        <v>1.024547479343274</v>
       </c>
       <c r="AK8" s="6" t="n">
-        <v>5218.628322226235</v>
+        <v>2637.392965123726</v>
       </c>
       <c r="AL8" s="6" t="n">
-        <v>18054.4759237352</v>
+        <v>-2969.628772339849</v>
       </c>
       <c r="AM8" s="6" t="n">
-        <v>1.18</v>
+        <v>7</v>
       </c>
       <c r="AN8" s="6" t="n">
-        <v>25.46082834601297</v>
+        <v>670.1820752554264</v>
       </c>
       <c r="AO8" s="6" t="n">
-        <v>0.009260894519733835</v>
+        <v>0.0006275419784656514</v>
       </c>
       <c r="AP8" s="6" t="n">
-        <v>4.249834998114059e-09</v>
-      </c>
-      <c r="AQ8" s="6" t="n">
-        <v>2.505245118407661e-06</v>
-      </c>
+        <v>5.038239191947545e-18</v>
+      </c>
+      <c r="AQ8" s="6" t="inlineStr"/>
       <c r="AR8" s="6" t="n">
-        <v>4.312540095633458e-06</v>
-      </c>
-      <c r="AS8" s="6" t="n">
-        <v>0.0002182511927359861</v>
-      </c>
-      <c r="AT8" s="6" t="n">
-        <v>6.795796348301129e-07</v>
-      </c>
-      <c r="AU8" s="6" t="n">
-        <v>1.924474658417838e-08</v>
-      </c>
-      <c r="AV8" s="6" t="n">
-        <v>0.2163682728483735</v>
-      </c>
+        <v>1.469357637069519e-13</v>
+      </c>
+      <c r="AS8" s="6" t="inlineStr"/>
+      <c r="AT8" s="6" t="inlineStr"/>
+      <c r="AU8" s="6" t="inlineStr"/>
+      <c r="AV8" s="6" t="inlineStr"/>
       <c r="AW8" s="6" t="n">
-        <v>0.2319158886132797</v>
-      </c>
-      <c r="AX8" s="6" t="n">
-        <v>0.001620694881195026</v>
-      </c>
-      <c r="AY8" s="6" t="n">
-        <v>0.5498526179063649</v>
-      </c>
+        <v>0.01568765131305829</v>
+      </c>
+      <c r="AX8" s="6" t="inlineStr"/>
+      <c r="AY8" s="6" t="inlineStr"/>
       <c r="AZ8" s="6" t="n">
-        <v>1.675369862054428e-05</v>
-      </c>
-      <c r="BA8" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
+        <v>0.1208636683318296</v>
+      </c>
+      <c r="BA8" s="6" t="n">
+        <v>4.550016475972735e-20</v>
       </c>
       <c r="BB8" s="6" t="n">
-        <v>6.191017120699143e-09</v>
+        <v>7.436591494195638e-14</v>
+      </c>
+      <c r="BC8" s="6" t="n">
+        <v>0.2390625325812038</v>
+      </c>
+      <c r="BD8" s="6" t="n">
+        <v>0.624386147773687</v>
+      </c>
+      <c r="BE8" s="6" t="inlineStr">
+        <is>
+          <t>Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF8" s="6" t="n">
+        <v>5.399980156072395e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1993,11 +1981,7 @@
           <t>air</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
         <v>5465.803495091778</v>
       </c>
@@ -2034,11 +2018,11 @@
       </c>
       <c r="R9" s="6" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>carleton</t>
         </is>
       </c>
       <c r="S9" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T9" s="6" t="n">
         <v>100</v>
@@ -2052,7 +2036,7 @@
         </is>
       </c>
       <c r="W9" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X9" s="6" t="inlineStr">
         <is>
@@ -2080,78 +2064,82 @@
         </is>
       </c>
       <c r="AE9" s="6" t="n">
-        <v>0.4260022078720511</v>
+        <v>0.3556345040398671</v>
       </c>
       <c r="AF9" s="6" t="n">
-        <v>5348.275109526501</v>
+        <v>5693.026937969717</v>
       </c>
       <c r="AG9" s="6" t="n">
-        <v>21053.5800392174</v>
+        <v>28088.10320304355</v>
       </c>
       <c r="AH9" s="6" t="n">
-        <v>885.1774507434077</v>
+        <v>628.871449716243</v>
       </c>
       <c r="AI9" s="6" t="n">
-        <v>1614.898116995219</v>
+        <v>1773.964404083054</v>
       </c>
       <c r="AJ9" s="6" t="n">
-        <v>0.5481320718798189</v>
+        <v>0.3545006023056596</v>
       </c>
       <c r="AK9" s="6" t="n">
-        <v>5405.846601238763</v>
+        <v>5720.738778046929</v>
       </c>
       <c r="AL9" s="6" t="n">
-        <v>21445.3495988697</v>
+        <v>28285.84285317766</v>
       </c>
       <c r="AM9" s="6" t="n">
-        <v>1.18</v>
+        <v>1.072572851331142</v>
       </c>
       <c r="AN9" s="6" t="n">
-        <v>23.53057555235877</v>
+        <v>13.14099195938582</v>
       </c>
       <c r="AO9" s="6" t="n">
-        <v>0.0100235474451316</v>
+        <v>0.0115606976459521</v>
       </c>
       <c r="AP9" s="6" t="n">
-        <v>5.97991863671144e-09</v>
+        <v>1.131632978544934e-08</v>
       </c>
       <c r="AQ9" s="6" t="n">
-        <v>9.044459885602219e-06</v>
+        <v>6.812464575705009e-05</v>
       </c>
       <c r="AR9" s="6" t="n">
-        <v>1.030594801276813e-05</v>
+        <v>4.283558895627634e-05</v>
       </c>
       <c r="AS9" s="6" t="n">
-        <v>0.0002866265794387679</v>
+        <v>0.000386923323812279</v>
       </c>
       <c r="AT9" s="6" t="n">
-        <v>1.612824869758676e-06</v>
+        <v>5.347034626930051e-06</v>
       </c>
       <c r="AU9" s="6" t="n">
-        <v>2.501373477022253e-08</v>
+        <v>3.667504956071292e-08</v>
       </c>
       <c r="AV9" s="6" t="n">
-        <v>0.3043020619558824</v>
+        <v>0.4890956209478228</v>
       </c>
       <c r="AW9" s="6" t="n">
-        <v>0.232075524335888</v>
+        <v>0.2322779646984983</v>
       </c>
       <c r="AX9" s="6" t="n">
-        <v>0.001253673659075338</v>
+        <v>0.0007235935893585571</v>
       </c>
       <c r="AY9" s="6" t="n">
-        <v>0.4620507618890534</v>
+        <v>0.2773950060022879</v>
       </c>
       <c r="AZ9" s="6" t="n">
-        <v>1.035735424034137e-05</v>
-      </c>
-      <c r="BA9" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
-      </c>
-      <c r="BB9" s="6" t="n">
-        <v>1.53523332170576e-08</v>
+        <v>4.536177500533472e-06</v>
+      </c>
+      <c r="BA9" s="6" t="inlineStr"/>
+      <c r="BB9" s="6" t="inlineStr"/>
+      <c r="BC9" s="6" t="inlineStr"/>
+      <c r="BD9" s="6" t="inlineStr"/>
+      <c r="BE9" s="6" t="inlineStr">
+        <is>
+          <t>Plasma gas invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF9" s="6" t="n">
+        <v>4.886469751503894e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2161,7 +2149,7 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>0.18</v>
@@ -2172,14 +2160,10 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
         <v>5594.042929185818</v>
       </c>
@@ -2220,7 +2204,7 @@
         </is>
       </c>
       <c r="S10" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T10" s="6" t="n">
         <v>100</v>
@@ -2234,7 +2218,7 @@
         </is>
       </c>
       <c r="W10" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X10" s="6" t="inlineStr">
         <is>
@@ -2258,60 +2242,80 @@
       </c>
       <c r="AD10" s="6" t="inlineStr">
         <is>
-          <t>Error: invalid data</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AE10" s="6" t="n">
-        <v>-1</v>
+        <v>0.9518588145319749</v>
       </c>
       <c r="AF10" s="6" t="n">
-        <v>-1</v>
+        <v>5381.049901480483</v>
       </c>
       <c r="AG10" s="6" t="n">
-        <v>-1</v>
+        <v>11606.42409071224</v>
       </c>
       <c r="AH10" s="6" t="n">
-        <v>-1</v>
+        <v>603.1952521760724</v>
       </c>
       <c r="AI10" s="6" t="n">
-        <v>-1</v>
+        <v>1535.542020942004</v>
       </c>
       <c r="AJ10" s="6" t="n">
-        <v>-1</v>
+        <v>0.3928223675741757</v>
       </c>
       <c r="AK10" s="6" t="n">
-        <v>-1</v>
+        <v>5417.85597281297</v>
       </c>
       <c r="AL10" s="6" t="n">
-        <v>-1</v>
+        <v>11788.34634683612</v>
       </c>
       <c r="AM10" s="6" t="n">
-        <v>-1</v>
+        <v>2.18</v>
       </c>
       <c r="AN10" s="6" t="n">
-        <v>-1</v>
+        <v>33.17678393684484</v>
       </c>
       <c r="AO10" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AP10" s="6" t="inlineStr"/>
+        <v>0.005145894947990552</v>
+      </c>
+      <c r="AP10" s="6" t="n">
+        <v>5.400932930024722e-09</v>
+      </c>
       <c r="AQ10" s="6" t="inlineStr"/>
-      <c r="AR10" s="6" t="inlineStr"/>
+      <c r="AR10" s="6" t="n">
+        <v>1.030409875140567e-05</v>
+      </c>
       <c r="AS10" s="6" t="inlineStr"/>
       <c r="AT10" s="6" t="inlineStr"/>
       <c r="AU10" s="6" t="inlineStr"/>
       <c r="AV10" s="6" t="inlineStr"/>
-      <c r="AW10" s="6" t="inlineStr"/>
+      <c r="AW10" s="6" t="n">
+        <v>0.3876399280377242</v>
+      </c>
       <c r="AX10" s="6" t="inlineStr"/>
       <c r="AY10" s="6" t="inlineStr"/>
-      <c r="AZ10" s="6" t="inlineStr"/>
-      <c r="BA10" s="6" t="inlineStr">
-        <is>
-          <t>Error: invalid data</t>
-        </is>
+      <c r="AZ10" s="6" t="n">
+        <v>6.049326076249351e-05</v>
+      </c>
+      <c r="BA10" s="6" t="n">
+        <v>0.0001105111199575007</v>
       </c>
       <c r="BB10" s="6" t="n">
-        <v>-1</v>
+        <v>0.01803993002684659</v>
+      </c>
+      <c r="BC10" s="6" t="n">
+        <v>0.5941152942224324</v>
+      </c>
+      <c r="BD10" s="6" t="n">
+        <v>2.353383259254073e-05</v>
+      </c>
+      <c r="BE10" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BF10" s="6" t="n">
+        <v>1.588011757854681e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2324,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0.1800002</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>1.18</v>
@@ -2339,21 +2343,13 @@
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>db_air_11.h5</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>4069.795639211517</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>4153.748027175163</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>639.7479981492821</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>0</v>
-      </c>
+          <t>db_example</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
         <v>400</v>
       </c>
@@ -2382,7 +2378,7 @@
         </is>
       </c>
       <c r="S11" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T11" s="6" t="n">
         <v>100</v>
@@ -2396,7 +2392,7 @@
         </is>
       </c>
       <c r="W11" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X11" s="6" t="inlineStr">
         <is>
@@ -2424,83 +2420,87 @@
         </is>
       </c>
       <c r="AE11" s="6" t="n">
-        <v>1.140140477770653</v>
+        <v>1.13997658916155</v>
       </c>
       <c r="AF11" s="6" t="n">
-        <v>2788.393950732933</v>
+        <v>2788.634598516189</v>
       </c>
       <c r="AG11" s="6" t="n">
-        <v>4962.791536878505</v>
+        <v>4964.221295193684</v>
       </c>
       <c r="AH11" s="6" t="n">
-        <v>541.4443211875015</v>
+        <v>541.4832460238198</v>
       </c>
       <c r="AI11" s="6" t="n">
-        <v>996.211487664574</v>
+        <v>996.2861606245765</v>
       </c>
       <c r="AJ11" s="6" t="n">
-        <v>0.5435033904867063</v>
+        <v>0.5435017241274951</v>
       </c>
       <c r="AK11" s="6" t="n">
-        <v>2829.635038643149</v>
+        <v>2829.880677394191</v>
       </c>
       <c r="AL11" s="6" t="n">
-        <v>5109.372513351602</v>
+        <v>5110.82334805593</v>
       </c>
       <c r="AM11" s="6" t="n">
         <v>1.18</v>
       </c>
       <c r="AN11" s="6" t="n">
-        <v>63.9372139708444</v>
+        <v>63.92763452114919</v>
       </c>
       <c r="AO11" s="6" t="n">
-        <v>0.003564332843729683</v>
+        <v>0.003564877002303508</v>
       </c>
       <c r="AP11" s="6" t="n">
-        <v>9.821497389501795e-13</v>
+        <v>9.839338078579741e-13</v>
       </c>
       <c r="AQ11" s="6" t="n">
-        <v>9.829883215622315e-20</v>
+        <v>9.884145383987038e-20</v>
       </c>
       <c r="AR11" s="6" t="n">
-        <v>6.49464771567034e-15</v>
+        <v>6.52088949979929e-15</v>
       </c>
       <c r="AS11" s="6" t="n">
-        <v>5.371132142127881e-08</v>
+        <v>5.380888428924482e-08</v>
       </c>
       <c r="AT11" s="6" t="n">
-        <v>6.436743172979554e-17</v>
+        <v>6.462941815583213e-17</v>
       </c>
       <c r="AU11" s="6" t="n">
-        <v>9.693069360814553e-12</v>
+        <v>9.714288628641342e-12</v>
       </c>
       <c r="AV11" s="6" t="n">
-        <v>1.470006574280668e-05</v>
+        <v>1.472688552595308e-05</v>
       </c>
       <c r="AW11" s="6" t="n">
-        <v>0.1014127817189425</v>
+        <v>0.1014823056361778</v>
       </c>
       <c r="AX11" s="6" t="n">
-        <v>0.02685000297464404</v>
+        <v>0.02685102906992243</v>
       </c>
       <c r="AY11" s="6" t="n">
-        <v>0.7545343139832558</v>
+        <v>0.7545338081416977</v>
       </c>
       <c r="AZ11" s="6" t="n">
-        <v>0.1171881475354116</v>
-      </c>
-      <c r="BA11" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|P_t_0 not consistent with the Barker's correction, set to P_stag</t>
-        </is>
-      </c>
-      <c r="BB11" s="6" t="n">
-        <v>4.718553473240654e-08</v>
+        <v>0.1171180764470871</v>
+      </c>
+      <c r="BA11" s="6" t="inlineStr"/>
+      <c r="BB11" s="6" t="inlineStr"/>
+      <c r="BC11" s="6" t="inlineStr"/>
+      <c r="BD11" s="6" t="inlineStr"/>
+      <c r="BE11" s="6" t="inlineStr">
+        <is>
+          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
+      </c>
+      <c r="BF11" s="6" t="n">
+        <v>3.167299167965089e-08</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="AD1:BB1"/>
+    <mergeCell ref="AD1:BF1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="S1:AC1"/>

--- a/example_files/example_out.xlsx
+++ b/example_files/example_out.xlsx
@@ -489,10 +489,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
     <col width="9" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
@@ -512,20 +512,35 @@
     <col width="10" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="17" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="17" customWidth="1" min="31" max="31"/>
-    <col width="17" customWidth="1" min="32" max="32"/>
-    <col width="18" customWidth="1" min="33" max="33"/>
-    <col width="16" customWidth="1" min="34" max="34"/>
-    <col width="22" customWidth="1" min="35" max="35"/>
-    <col width="13" customWidth="1" min="36" max="36"/>
-    <col width="23" customWidth="1" min="37" max="37"/>
-    <col width="24" customWidth="1" min="38" max="38"/>
-    <col width="22" customWidth="1" min="39" max="39"/>
-    <col width="17" customWidth="1" min="40" max="40"/>
-    <col width="16" customWidth="1" min="41" max="41"/>
-    <col width="168" customWidth="1" min="57" max="57"/>
-    <col width="10" customWidth="1" min="58" max="58"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="24" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
+    <col width="20" customWidth="1" min="33" max="33"/>
+    <col width="21" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
+    <col width="22" customWidth="1" min="36" max="36"/>
+    <col width="21" customWidth="1" min="37" max="37"/>
+    <col width="23" customWidth="1" min="38" max="38"/>
+    <col width="24" customWidth="1" min="39" max="39"/>
+    <col width="22" customWidth="1" min="40" max="40"/>
+    <col width="20" customWidth="1" min="41" max="41"/>
+    <col width="23" customWidth="1" min="42" max="42"/>
+    <col width="24" customWidth="1" min="43" max="43"/>
+    <col width="23" customWidth="1" min="44" max="44"/>
+    <col width="24" customWidth="1" min="45" max="45"/>
+    <col width="23" customWidth="1" min="46" max="46"/>
+    <col width="24" customWidth="1" min="47" max="47"/>
+    <col width="24" customWidth="1" min="48" max="48"/>
+    <col width="24" customWidth="1" min="49" max="49"/>
+    <col width="24" customWidth="1" min="50" max="50"/>
+    <col width="23" customWidth="1" min="51" max="51"/>
+    <col width="20" customWidth="1" min="52" max="52"/>
+    <col width="24" customWidth="1" min="53" max="53"/>
+    <col width="24" customWidth="1" min="54" max="54"/>
+    <col width="24" customWidth="1" min="55" max="55"/>
+    <col width="21" customWidth="1" min="56" max="56"/>
+    <col width="24" customWidth="1" min="57" max="57"/>
+    <col width="137" customWidth="1" min="58" max="58"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -761,142 +776,142 @@
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
+          <t>residual</t>
+        </is>
+      </c>
+      <c r="AF2" s="5" t="inlineStr">
+        <is>
           <t>density [g/m^3]</t>
         </is>
       </c>
-      <c r="AF2" s="5" t="inlineStr">
+      <c r="AG2" s="5" t="inlineStr">
         <is>
           <t>temperature [K]</t>
         </is>
       </c>
-      <c r="AG2" s="5" t="inlineStr">
+      <c r="AH2" s="5" t="inlineStr">
         <is>
           <t>enthalpy [kJ/kg]</t>
         </is>
       </c>
-      <c r="AH2" s="5" t="inlineStr">
+      <c r="AI2" s="5" t="inlineStr">
         <is>
           <t>velocity [m/s]</t>
         </is>
       </c>
-      <c r="AI2" s="5" t="inlineStr">
+      <c r="AJ2" s="5" t="inlineStr">
         <is>
           <t>speed of sound [m/s]</t>
         </is>
       </c>
-      <c r="AJ2" s="5" t="inlineStr">
+      <c r="AK2" s="5" t="inlineStr">
         <is>
           <t>mach number</t>
         </is>
       </c>
-      <c r="AK2" s="5" t="inlineStr">
+      <c r="AL2" s="5" t="inlineStr">
         <is>
           <t>total temperature [K]</t>
         </is>
       </c>
-      <c r="AL2" s="5" t="inlineStr">
+      <c r="AM2" s="5" t="inlineStr">
         <is>
           <t>total enthalpy [kJ/kg]</t>
         </is>
       </c>
-      <c r="AM2" s="5" t="inlineStr">
+      <c r="AN2" s="5" t="inlineStr">
         <is>
           <t>total pressure [kPa]</t>
         </is>
       </c>
-      <c r="AN2" s="5" t="inlineStr">
+      <c r="AO2" s="5" t="inlineStr">
         <is>
           <t>reynolds number</t>
         </is>
       </c>
-      <c r="AO2" s="5" t="inlineStr">
+      <c r="AP2" s="5" t="inlineStr">
         <is>
           <t>knudsen number</t>
         </is>
       </c>
-      <c r="AP2" s="5" t="inlineStr">
+      <c r="AQ2" s="5" t="inlineStr">
         <is>
           <t>e-</t>
         </is>
       </c>
-      <c r="AQ2" s="5" t="inlineStr">
+      <c r="AR2" s="5" t="inlineStr">
         <is>
           <t>N+</t>
         </is>
       </c>
-      <c r="AR2" s="5" t="inlineStr">
+      <c r="AS2" s="5" t="inlineStr">
         <is>
           <t>O+</t>
         </is>
       </c>
-      <c r="AS2" s="5" t="inlineStr">
+      <c r="AT2" s="5" t="inlineStr">
         <is>
           <t>NO+</t>
         </is>
       </c>
-      <c r="AT2" s="5" t="inlineStr">
+      <c r="AU2" s="5" t="inlineStr">
         <is>
           <t>N2+</t>
         </is>
       </c>
-      <c r="AU2" s="5" t="inlineStr">
+      <c r="AV2" s="5" t="inlineStr">
         <is>
           <t>O2+</t>
         </is>
       </c>
-      <c r="AV2" s="5" t="inlineStr">
+      <c r="AW2" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AW2" s="5" t="inlineStr">
+      <c r="AX2" s="5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AX2" s="5" t="inlineStr">
+      <c r="AY2" s="5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="AY2" s="5" t="inlineStr">
+      <c r="AZ2" s="5" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="AZ2" s="5" t="inlineStr">
+      <c r="BA2" s="5" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="BA2" s="5" t="inlineStr">
+      <c r="BB2" s="5" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
-      <c r="BB2" s="5" t="inlineStr">
+      <c r="BC2" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="BC2" s="5" t="inlineStr">
+      <c r="BD2" s="5" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="BD2" s="5" t="inlineStr">
+      <c r="BE2" s="5" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="BE2" s="5" t="inlineStr">
+      <c r="BF2" s="5" t="inlineStr">
         <is>
           <t>warnings</t>
-        </is>
-      </c>
-      <c r="BF2" s="5" t="inlineStr">
-        <is>
-          <t>residual</t>
         </is>
       </c>
     </row>
@@ -918,12 +933,12 @@
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>air_11</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>db_example</t>
+          <t>db_example.h5</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr"/>
@@ -1000,82 +1015,82 @@
         </is>
       </c>
       <c r="AE3" s="6" t="n">
-        <v>2.290474337185469</v>
+        <v>3.288864327146045e-08</v>
       </c>
       <c r="AF3" s="6" t="n">
-        <v>1514.905898278834</v>
+        <v>2.290464544460392</v>
       </c>
       <c r="AG3" s="6" t="n">
-        <v>1663.62683021203</v>
+        <v>1514.912373619253</v>
       </c>
       <c r="AH3" s="6" t="n">
-        <v>383.8540077761088</v>
+        <v>1663.634827885765</v>
       </c>
       <c r="AI3" s="6" t="n">
-        <v>754.6840706809064</v>
+        <v>383.8547863842808</v>
       </c>
       <c r="AJ3" s="6" t="n">
-        <v>0.5086287397450701</v>
+        <v>754.6855691994534</v>
       </c>
       <c r="AK3" s="6" t="n">
-        <v>1574.288972727775</v>
+        <v>0.5086287615005834</v>
       </c>
       <c r="AL3" s="6" t="n">
-        <v>1737.298779854921</v>
+        <v>1574.295627645929</v>
       </c>
       <c r="AM3" s="6" t="n">
+        <v>1737.307076400826</v>
+      </c>
+      <c r="AN3" s="6" t="n">
         <v>1.18</v>
       </c>
-      <c r="AN3" s="6" t="n">
-        <v>141.129318733034</v>
-      </c>
       <c r="AO3" s="6" t="n">
-        <v>0.00159005361890984</v>
+        <v>141.1285960702187</v>
       </c>
       <c r="AP3" s="6" t="n">
-        <v>9.528521981054373e-21</v>
+        <v>0.001590061774369076</v>
       </c>
       <c r="AQ3" s="6" t="n">
-        <v>4.291012361715754e-42</v>
+        <v>9.530162519008896e-21</v>
       </c>
       <c r="AR3" s="6" t="n">
-        <v>3.567121068360242e-32</v>
+        <v>4.293060080063047e-42</v>
       </c>
       <c r="AS3" s="6" t="n">
-        <v>5.211792443405015e-16</v>
+        <v>3.568442653463487e-32</v>
       </c>
       <c r="AT3" s="6" t="n">
-        <v>2.771765419635963e-33</v>
+        <v>5.212689764343207e-16</v>
       </c>
       <c r="AU3" s="6" t="n">
-        <v>1.885117226383755e-22</v>
+        <v>2.772732252214409e-33</v>
       </c>
       <c r="AV3" s="6" t="n">
-        <v>3.92784198257825e-13</v>
+        <v>1.885557309977362e-22</v>
       </c>
       <c r="AW3" s="6" t="n">
-        <v>1.305349189790148e-05</v>
+        <v>3.928479604581465e-13</v>
       </c>
       <c r="AX3" s="6" t="n">
-        <v>0.001403313878763925</v>
+        <v>1.305461685910102e-05</v>
       </c>
       <c r="AY3" s="6" t="n">
-        <v>0.7664274285202659</v>
+        <v>0.001403357183526179</v>
       </c>
       <c r="AZ3" s="6" t="n">
-        <v>0.2321562041086791</v>
-      </c>
-      <c r="BA3" s="6" t="inlineStr"/>
+        <v>0.7664274083058153</v>
+      </c>
+      <c r="BA3" s="6" t="n">
+        <v>0.232156179893406</v>
+      </c>
       <c r="BB3" s="6" t="inlineStr"/>
       <c r="BC3" s="6" t="inlineStr"/>
       <c r="BD3" s="6" t="inlineStr"/>
-      <c r="BE3" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF3" s="6" t="n">
-        <v>5.458624242684153e-10</v>
+      <c r="BE3" s="6" t="inlineStr"/>
+      <c r="BF3" s="6" t="inlineStr">
+        <is>
+          <t>P_t_0 not consistent with the Barker's correction, set to P_stag</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1096,12 +1111,12 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>air_11</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>db_example</t>
+          <t>db_example.h5</t>
         </is>
       </c>
       <c r="H4" s="6" t="inlineStr"/>
@@ -1178,82 +1193,82 @@
         </is>
       </c>
       <c r="AE4" s="6" t="n">
-        <v>1.126606980347759</v>
+        <v>3.789583055765046e-08</v>
       </c>
       <c r="AF4" s="6" t="n">
-        <v>2808.402124641389</v>
+        <v>1.126606242986651</v>
       </c>
       <c r="AG4" s="6" t="n">
-        <v>5082.10715187907</v>
+        <v>2808.403222693689</v>
       </c>
       <c r="AH4" s="6" t="n">
-        <v>523.8718521608901</v>
+        <v>5082.113720339953</v>
       </c>
       <c r="AI4" s="6" t="n">
-        <v>1002.472764012991</v>
+        <v>523.8720404309278</v>
       </c>
       <c r="AJ4" s="6" t="n">
-        <v>0.5225796360429611</v>
+        <v>1002.473110483697</v>
       </c>
       <c r="AK4" s="6" t="n">
-        <v>2846.960073939363</v>
+        <v>0.5225796432366725</v>
       </c>
       <c r="AL4" s="6" t="n">
-        <v>5219.32801062231</v>
+        <v>2846.961209662053</v>
       </c>
       <c r="AM4" s="6" t="n">
-        <v>1.165569805200765</v>
+        <v>5219.334677712585</v>
       </c>
       <c r="AN4" s="6" t="n">
-        <v>60.73348048083631</v>
+        <v>1.165569795175055</v>
       </c>
       <c r="AO4" s="6" t="n">
-        <v>0.003609771420464112</v>
+        <v>60.73344102469495</v>
       </c>
       <c r="AP4" s="6" t="n">
-        <v>1.140460357448185e-12</v>
+        <v>0.003609773924332363</v>
       </c>
       <c r="AQ4" s="6" t="n">
-        <v>1.549378399598107e-19</v>
+        <v>1.140469619404371e-12</v>
       </c>
       <c r="AR4" s="6" t="n">
-        <v>9.056851132185776e-15</v>
+        <v>1.549416860310129e-19</v>
       </c>
       <c r="AS4" s="6" t="n">
-        <v>6.236861241699648e-08</v>
+        <v>9.057015057366628e-15</v>
       </c>
       <c r="AT4" s="6" t="n">
-        <v>9.005955928818911e-17</v>
+        <v>6.236911891039785e-08</v>
       </c>
       <c r="AU4" s="6" t="n">
-        <v>1.159599606232588e-11</v>
+        <v>9.006121011794468e-17</v>
       </c>
       <c r="AV4" s="6" t="n">
-        <v>1.708802247783153e-05</v>
+        <v>1.159610848497562e-11</v>
       </c>
       <c r="AW4" s="6" t="n">
-        <v>0.1072239267604175</v>
+        <v>1.708816267041628e-05</v>
       </c>
       <c r="AX4" s="6" t="n">
-        <v>0.0269111044693095</v>
+        <v>0.1072242471256724</v>
       </c>
       <c r="AY4" s="6" t="n">
-        <v>0.7545034001078694</v>
+        <v>0.02691110646882161</v>
       </c>
       <c r="AZ4" s="6" t="n">
-        <v>0.1113444182585678</v>
-      </c>
-      <c r="BA4" s="6" t="inlineStr"/>
+        <v>0.7545033990340777</v>
+      </c>
+      <c r="BA4" s="6" t="n">
+        <v>0.1113440968268932</v>
+      </c>
       <c r="BB4" s="6" t="inlineStr"/>
       <c r="BC4" s="6" t="inlineStr"/>
       <c r="BD4" s="6" t="inlineStr"/>
-      <c r="BE4" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF4" s="6" t="n">
-        <v>1.465915689397217e-08</v>
+      <c r="BE4" s="6" t="inlineStr"/>
+      <c r="BF4" s="6" t="inlineStr">
+        <is>
+          <t>Linear interpolation failed, nearest interpolation used.</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1279,7 +1294,7 @@
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
-          <t>db_example</t>
+          <t>db_example.h5</t>
         </is>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
@@ -1356,76 +1371,76 @@
         </is>
       </c>
       <c r="AE5" s="6" t="n">
-        <v>1.389636116511266</v>
+        <v>2.133992576317752e-08</v>
       </c>
       <c r="AF5" s="6" t="n">
-        <v>2670.2982459945</v>
+        <v>1.389634382076974</v>
       </c>
       <c r="AG5" s="6" t="n">
-        <v>-499.3352319102689</v>
+        <v>2670.299405390008</v>
       </c>
       <c r="AH5" s="6" t="n">
-        <v>474.1829097307873</v>
+        <v>-499.3196740518096</v>
       </c>
       <c r="AI5" s="6" t="n">
-        <v>888.122969438085</v>
+        <v>474.1828249556874</v>
       </c>
       <c r="AJ5" s="6" t="n">
-        <v>0.5339158270287758</v>
+        <v>888.1235460228028</v>
       </c>
       <c r="AK5" s="6" t="n">
-        <v>2694.451737348082</v>
+        <v>0.5339153849474818</v>
       </c>
       <c r="AL5" s="6" t="n">
-        <v>-386.9105159698909</v>
+        <v>2694.452923375896</v>
       </c>
       <c r="AM5" s="6" t="n">
-        <v>1.16785135483749</v>
+        <v>-386.8949983103316</v>
       </c>
       <c r="AN5" s="6" t="n">
-        <v>73.26442299703685</v>
+        <v>1.167851356731203</v>
       </c>
       <c r="AO5" s="6" t="n">
-        <v>0.003040878405587785</v>
+        <v>73.26427896007695</v>
       </c>
       <c r="AP5" s="6" t="n">
-        <v>9.700474285264218e-17</v>
-      </c>
-      <c r="AQ5" s="6" t="inlineStr"/>
-      <c r="AR5" s="6" t="n">
-        <v>2.82905513035181e-12</v>
-      </c>
-      <c r="AS5" s="6" t="inlineStr"/>
+        <v>0.003040882156967737</v>
+      </c>
+      <c r="AQ5" s="6" t="n">
+        <v>9.700635292622151e-17</v>
+      </c>
+      <c r="AR5" s="6" t="inlineStr"/>
+      <c r="AS5" s="6" t="n">
+        <v>2.829102086658079e-12</v>
+      </c>
       <c r="AT5" s="6" t="inlineStr"/>
       <c r="AU5" s="6" t="inlineStr"/>
       <c r="AV5" s="6" t="inlineStr"/>
-      <c r="AW5" s="6" t="n">
-        <v>0.06950492669713997</v>
-      </c>
-      <c r="AX5" s="6" t="inlineStr"/>
+      <c r="AW5" s="6" t="inlineStr"/>
+      <c r="AX5" s="6" t="n">
+        <v>0.06950531672561848</v>
+      </c>
       <c r="AY5" s="6" t="inlineStr"/>
-      <c r="AZ5" s="6" t="n">
-        <v>0.1710485366753572</v>
-      </c>
+      <c r="AZ5" s="6" t="inlineStr"/>
       <c r="BA5" s="6" t="n">
-        <v>2.29757369529587e-18</v>
+        <v>0.1710486007900676</v>
       </c>
       <c r="BB5" s="6" t="n">
-        <v>1.392243166163273e-12</v>
+        <v>2.29763123757364e-18</v>
       </c>
       <c r="BC5" s="6" t="n">
-        <v>0.4211407134282744</v>
+        <v>1.392268916073415e-12</v>
       </c>
       <c r="BD5" s="6" t="n">
-        <v>0.338305823195007</v>
-      </c>
-      <c r="BE5" s="6" t="inlineStr">
-        <is>
-          <t>Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF5" s="6" t="n">
-        <v>4.698149141499829e-08</v>
+        <v>0.4211415085038629</v>
+      </c>
+      <c r="BE5" s="6" t="n">
+        <v>0.3383045739762295</v>
+      </c>
+      <c r="BF5" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1446,7 +1461,7 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>air_11</t>
         </is>
       </c>
       <c r="G6" s="6" t="inlineStr">
@@ -1528,82 +1543,82 @@
         </is>
       </c>
       <c r="AE6" s="6" t="n">
+        <v>3.131816476325616e-08</v>
+      </c>
+      <c r="AF6" s="6" t="n">
         <v>0.5855510800079897</v>
       </c>
-      <c r="AF6" s="6" t="n">
+      <c r="AG6" s="6" t="n">
         <v>4646.174462950412</v>
       </c>
-      <c r="AG6" s="6" t="n">
+      <c r="AH6" s="6" t="n">
         <v>11684.78687346593</v>
       </c>
-      <c r="AH6" s="6" t="n">
+      <c r="AI6" s="6" t="n">
         <v>698.5286973740479</v>
       </c>
-      <c r="AI6" s="6" t="n">
+      <c r="AJ6" s="6" t="n">
         <v>1385.019314340918</v>
       </c>
-      <c r="AJ6" s="6" t="n">
+      <c r="AK6" s="6" t="n">
         <v>0.504345816799279</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AL6" s="6" t="n">
         <v>4700.212703114736</v>
       </c>
-      <c r="AL6" s="6" t="n">
+      <c r="AM6" s="6" t="n">
         <v>11928.75804399347</v>
       </c>
-      <c r="AM6" s="6" t="n">
+      <c r="AN6" s="6" t="n">
         <v>1.152290777356284</v>
       </c>
-      <c r="AN6" s="6" t="n">
+      <c r="AO6" s="6" t="n">
         <v>28.50436032102602</v>
       </c>
-      <c r="AO6" s="6" t="n">
+      <c r="AP6" s="6" t="n">
         <v>0.007541338370222157</v>
       </c>
-      <c r="AP6" s="6" t="n">
+      <c r="AQ6" s="6" t="n">
         <v>1.471821045954147e-09</v>
       </c>
-      <c r="AQ6" s="6" t="n">
+      <c r="AR6" s="6" t="n">
         <v>3.937247608635887e-08</v>
       </c>
-      <c r="AR6" s="6" t="n">
+      <c r="AS6" s="6" t="n">
         <v>2.838640249118396e-07</v>
       </c>
-      <c r="AS6" s="6" t="n">
+      <c r="AT6" s="6" t="n">
         <v>7.984343195147516e-05</v>
       </c>
-      <c r="AT6" s="6" t="n">
+      <c r="AU6" s="6" t="n">
         <v>3.366686978323279e-08</v>
       </c>
-      <c r="AU6" s="6" t="n">
+      <c r="AV6" s="6" t="n">
         <v>8.148120296413255e-09</v>
       </c>
-      <c r="AV6" s="6" t="n">
+      <c r="AW6" s="6" t="n">
         <v>0.06496131642019741</v>
       </c>
-      <c r="AW6" s="6" t="n">
+      <c r="AX6" s="6" t="n">
         <v>0.2311961866131164</v>
       </c>
-      <c r="AX6" s="6" t="n">
+      <c r="AY6" s="6" t="n">
         <v>0.003013462585031084</v>
       </c>
-      <c r="AY6" s="6" t="n">
+      <c r="AZ6" s="6" t="n">
         <v>0.7006771583541472</v>
       </c>
-      <c r="AZ6" s="6" t="n">
+      <c r="BA6" s="6" t="n">
         <v>7.166607224421286e-05</v>
       </c>
-      <c r="BA6" s="6" t="inlineStr"/>
       <c r="BB6" s="6" t="inlineStr"/>
       <c r="BC6" s="6" t="inlineStr"/>
       <c r="BD6" s="6" t="inlineStr"/>
-      <c r="BE6" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF6" s="6" t="n">
-        <v>3.131816476325616e-08</v>
+      <c r="BE6" s="6" t="inlineStr"/>
+      <c r="BF6" s="6" t="inlineStr">
+        <is>
+          <t>Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1624,7 +1639,7 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>air_11</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
@@ -1710,82 +1725,82 @@
         </is>
       </c>
       <c r="AE7" s="6" t="n">
+        <v>1.905764389035282e-09</v>
+      </c>
+      <c r="AF7" s="6" t="n">
         <v>0.6318972156021027</v>
       </c>
-      <c r="AF7" s="6" t="n">
+      <c r="AG7" s="6" t="n">
         <v>4417.36022992311</v>
       </c>
-      <c r="AG7" s="6" t="n">
+      <c r="AH7" s="6" t="n">
         <v>10295.37878061522</v>
       </c>
-      <c r="AH7" s="6" t="n">
+      <c r="AI7" s="6" t="n">
         <v>1104.777757107777</v>
       </c>
-      <c r="AI7" s="6" t="n">
+      <c r="AJ7" s="6" t="n">
         <v>1344.443697523798</v>
       </c>
-      <c r="AJ7" s="6" t="n">
+      <c r="AK7" s="6" t="n">
         <v>0.8217359783400087</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AL7" s="6" t="n">
         <v>4581.628362501458</v>
       </c>
-      <c r="AL7" s="6" t="n">
+      <c r="AM7" s="6" t="n">
         <v>10905.64572691527</v>
       </c>
-      <c r="AM7" s="6" t="n">
+      <c r="AN7" s="6" t="n">
         <v>1.457618625717682</v>
       </c>
-      <c r="AN7" s="6" t="n">
+      <c r="AO7" s="6" t="n">
         <v>50.39773123169963</v>
       </c>
-      <c r="AO7" s="6" t="n">
+      <c r="AP7" s="6" t="n">
         <v>0.006950167874682603</v>
       </c>
-      <c r="AP7" s="6" t="n">
+      <c r="AQ7" s="6" t="n">
         <v>8.529188522270911e-10</v>
       </c>
-      <c r="AQ7" s="6" t="n">
+      <c r="AR7" s="6" t="n">
         <v>4.666383197728399e-09</v>
       </c>
-      <c r="AR7" s="6" t="n">
+      <c r="AS7" s="6" t="n">
         <v>7.21973600657394e-08</v>
       </c>
-      <c r="AS7" s="6" t="n">
+      <c r="AT7" s="6" t="n">
         <v>4.649428423825736e-05</v>
       </c>
-      <c r="AT7" s="6" t="n">
+      <c r="AU7" s="6" t="n">
         <v>6.831822087199736e-09</v>
       </c>
-      <c r="AU7" s="6" t="n">
+      <c r="AV7" s="6" t="n">
         <v>5.232535974525849e-09</v>
       </c>
-      <c r="AV7" s="6" t="n">
+      <c r="AW7" s="6" t="n">
         <v>0.0340737912783129</v>
       </c>
-      <c r="AW7" s="6" t="n">
+      <c r="AX7" s="6" t="n">
         <v>0.2306613020371153</v>
       </c>
-      <c r="AX7" s="6" t="n">
+      <c r="AY7" s="6" t="n">
         <v>0.003909844472376712</v>
       </c>
-      <c r="AY7" s="6" t="n">
+      <c r="AZ7" s="6" t="n">
         <v>0.7311618858825969</v>
       </c>
-      <c r="AZ7" s="6" t="n">
+      <c r="BA7" s="6" t="n">
         <v>0.0001465922643396803</v>
       </c>
-      <c r="BA7" s="6" t="inlineStr"/>
       <c r="BB7" s="6" t="inlineStr"/>
       <c r="BC7" s="6" t="inlineStr"/>
       <c r="BD7" s="6" t="inlineStr"/>
-      <c r="BE7" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF7" s="6" t="n">
-        <v>1.905764389035282e-09</v>
+      <c r="BE7" s="6" t="inlineStr"/>
+      <c r="BF7" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1811,7 +1826,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>db_example</t>
+          <t>db_example.h5</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
@@ -1888,76 +1903,76 @@
         </is>
       </c>
       <c r="AE8" s="6" t="n">
-        <v>6.862229631981048</v>
+        <v>6.928055584865662e-09</v>
       </c>
       <c r="AF8" s="6" t="n">
-        <v>2551.206489490869</v>
+        <v>6.862237916828771</v>
       </c>
       <c r="AG8" s="6" t="n">
-        <v>-3303.717162534938</v>
+        <v>2551.205165124444</v>
       </c>
       <c r="AH8" s="6" t="n">
-        <v>817.4208098587765</v>
+        <v>-3303.729179179515</v>
       </c>
       <c r="AI8" s="6" t="n">
-        <v>797.8359483961992</v>
+        <v>817.4203240019041</v>
       </c>
       <c r="AJ8" s="6" t="n">
-        <v>1.024547479343274</v>
+        <v>797.8354554523614</v>
       </c>
       <c r="AK8" s="6" t="n">
-        <v>2637.392965123726</v>
+        <v>1.024547503392712</v>
       </c>
       <c r="AL8" s="6" t="n">
-        <v>-2969.628772339849</v>
+        <v>2637.39159176262</v>
       </c>
       <c r="AM8" s="6" t="n">
+        <v>-2969.641186133826</v>
+      </c>
+      <c r="AN8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AN8" s="6" t="n">
-        <v>670.1820752554264</v>
-      </c>
       <c r="AO8" s="6" t="n">
-        <v>0.0006275419784656514</v>
+        <v>670.1828063941146</v>
       </c>
       <c r="AP8" s="6" t="n">
-        <v>5.038239191947545e-18</v>
-      </c>
-      <c r="AQ8" s="6" t="inlineStr"/>
-      <c r="AR8" s="6" t="n">
-        <v>1.469357637069519e-13</v>
-      </c>
-      <c r="AS8" s="6" t="inlineStr"/>
+        <v>0.0006275412558244435</v>
+      </c>
+      <c r="AQ8" s="6" t="n">
+        <v>5.038132881601922e-18</v>
+      </c>
+      <c r="AR8" s="6" t="inlineStr"/>
+      <c r="AS8" s="6" t="n">
+        <v>1.469326632608647e-13</v>
+      </c>
       <c r="AT8" s="6" t="inlineStr"/>
       <c r="AU8" s="6" t="inlineStr"/>
       <c r="AV8" s="6" t="inlineStr"/>
-      <c r="AW8" s="6" t="n">
-        <v>0.01568765131305829</v>
-      </c>
-      <c r="AX8" s="6" t="inlineStr"/>
+      <c r="AW8" s="6" t="inlineStr"/>
+      <c r="AX8" s="6" t="n">
+        <v>0.01568752466205554</v>
+      </c>
       <c r="AY8" s="6" t="inlineStr"/>
-      <c r="AZ8" s="6" t="n">
-        <v>0.1208636683318296</v>
-      </c>
+      <c r="AZ8" s="6" t="inlineStr"/>
       <c r="BA8" s="6" t="n">
-        <v>4.550016475972735e-20</v>
+        <v>0.1208633164871991</v>
       </c>
       <c r="BB8" s="6" t="n">
-        <v>7.436591494195638e-14</v>
+        <v>4.549878313885785e-20</v>
       </c>
       <c r="BC8" s="6" t="n">
-        <v>0.2390625325812038</v>
+        <v>7.436421279831382e-14</v>
       </c>
       <c r="BD8" s="6" t="n">
-        <v>0.624386147773687</v>
-      </c>
-      <c r="BE8" s="6" t="inlineStr">
-        <is>
-          <t>Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF8" s="6" t="n">
-        <v>5.399980156072395e-08</v>
+        <v>0.2390616948714096</v>
+      </c>
+      <c r="BE8" s="6" t="n">
+        <v>0.6243874639791146</v>
+      </c>
+      <c r="BF8" s="6" t="inlineStr">
+        <is>
+          <t>P_t_0 not consistent with the Barker's correction, set to P_stag</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1978,7 +1993,7 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>air_11</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
@@ -2064,82 +2079,82 @@
         </is>
       </c>
       <c r="AE9" s="6" t="n">
+        <v>4.886469751503894e-08</v>
+      </c>
+      <c r="AF9" s="6" t="n">
         <v>0.3556345040398671</v>
       </c>
-      <c r="AF9" s="6" t="n">
+      <c r="AG9" s="6" t="n">
         <v>5693.026937969717</v>
       </c>
-      <c r="AG9" s="6" t="n">
+      <c r="AH9" s="6" t="n">
         <v>28088.10320304355</v>
       </c>
-      <c r="AH9" s="6" t="n">
+      <c r="AI9" s="6" t="n">
         <v>628.871449716243</v>
       </c>
-      <c r="AI9" s="6" t="n">
+      <c r="AJ9" s="6" t="n">
         <v>1773.964404083054</v>
       </c>
-      <c r="AJ9" s="6" t="n">
+      <c r="AK9" s="6" t="n">
         <v>0.3545006023056596</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AL9" s="6" t="n">
         <v>5720.738778046929</v>
       </c>
-      <c r="AL9" s="6" t="n">
+      <c r="AM9" s="6" t="n">
         <v>28285.84285317766</v>
       </c>
-      <c r="AM9" s="6" t="n">
+      <c r="AN9" s="6" t="n">
         <v>1.072572851331142</v>
       </c>
-      <c r="AN9" s="6" t="n">
+      <c r="AO9" s="6" t="n">
         <v>13.14099195938582</v>
       </c>
-      <c r="AO9" s="6" t="n">
+      <c r="AP9" s="6" t="n">
         <v>0.0115606976459521</v>
       </c>
-      <c r="AP9" s="6" t="n">
+      <c r="AQ9" s="6" t="n">
         <v>1.131632978544934e-08</v>
       </c>
-      <c r="AQ9" s="6" t="n">
+      <c r="AR9" s="6" t="n">
         <v>6.812464575705009e-05</v>
       </c>
-      <c r="AR9" s="6" t="n">
+      <c r="AS9" s="6" t="n">
         <v>4.283558895627634e-05</v>
       </c>
-      <c r="AS9" s="6" t="n">
+      <c r="AT9" s="6" t="n">
         <v>0.000386923323812279</v>
       </c>
-      <c r="AT9" s="6" t="n">
+      <c r="AU9" s="6" t="n">
         <v>5.347034626930051e-06</v>
       </c>
-      <c r="AU9" s="6" t="n">
+      <c r="AV9" s="6" t="n">
         <v>3.667504956071292e-08</v>
       </c>
-      <c r="AV9" s="6" t="n">
+      <c r="AW9" s="6" t="n">
         <v>0.4890956209478228</v>
       </c>
-      <c r="AW9" s="6" t="n">
+      <c r="AX9" s="6" t="n">
         <v>0.2322779646984983</v>
       </c>
-      <c r="AX9" s="6" t="n">
+      <c r="AY9" s="6" t="n">
         <v>0.0007235935893585571</v>
       </c>
-      <c r="AY9" s="6" t="n">
+      <c r="AZ9" s="6" t="n">
         <v>0.2773950060022879</v>
       </c>
-      <c r="AZ9" s="6" t="n">
+      <c r="BA9" s="6" t="n">
         <v>4.536177500533472e-06</v>
       </c>
-      <c r="BA9" s="6" t="inlineStr"/>
       <c r="BB9" s="6" t="inlineStr"/>
       <c r="BC9" s="6" t="inlineStr"/>
       <c r="BD9" s="6" t="inlineStr"/>
-      <c r="BE9" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF9" s="6" t="n">
-        <v>4.886469751503894e-08</v>
+      <c r="BE9" s="6" t="inlineStr"/>
+      <c r="BF9" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2246,76 +2261,76 @@
         </is>
       </c>
       <c r="AE10" s="6" t="n">
+        <v>1.588011757854681e-08</v>
+      </c>
+      <c r="AF10" s="6" t="n">
         <v>0.9518588145319749</v>
       </c>
-      <c r="AF10" s="6" t="n">
+      <c r="AG10" s="6" t="n">
         <v>5381.049901480483</v>
       </c>
-      <c r="AG10" s="6" t="n">
+      <c r="AH10" s="6" t="n">
         <v>11606.42409071224</v>
       </c>
-      <c r="AH10" s="6" t="n">
+      <c r="AI10" s="6" t="n">
         <v>603.1952521760724</v>
       </c>
-      <c r="AI10" s="6" t="n">
+      <c r="AJ10" s="6" t="n">
         <v>1535.542020942004</v>
       </c>
-      <c r="AJ10" s="6" t="n">
+      <c r="AK10" s="6" t="n">
         <v>0.3928223675741757</v>
       </c>
-      <c r="AK10" s="6" t="n">
+      <c r="AL10" s="6" t="n">
         <v>5417.85597281297</v>
       </c>
-      <c r="AL10" s="6" t="n">
+      <c r="AM10" s="6" t="n">
         <v>11788.34634683612</v>
       </c>
-      <c r="AM10" s="6" t="n">
+      <c r="AN10" s="6" t="n">
         <v>2.18</v>
       </c>
-      <c r="AN10" s="6" t="n">
+      <c r="AO10" s="6" t="n">
         <v>33.17678393684484</v>
       </c>
-      <c r="AO10" s="6" t="n">
+      <c r="AP10" s="6" t="n">
         <v>0.005145894947990552</v>
       </c>
-      <c r="AP10" s="6" t="n">
+      <c r="AQ10" s="6" t="n">
         <v>5.400932930024722e-09</v>
       </c>
-      <c r="AQ10" s="6" t="inlineStr"/>
-      <c r="AR10" s="6" t="n">
+      <c r="AR10" s="6" t="inlineStr"/>
+      <c r="AS10" s="6" t="n">
         <v>1.030409875140567e-05</v>
       </c>
-      <c r="AS10" s="6" t="inlineStr"/>
       <c r="AT10" s="6" t="inlineStr"/>
       <c r="AU10" s="6" t="inlineStr"/>
       <c r="AV10" s="6" t="inlineStr"/>
-      <c r="AW10" s="6" t="n">
+      <c r="AW10" s="6" t="inlineStr"/>
+      <c r="AX10" s="6" t="n">
         <v>0.3876399280377242</v>
       </c>
-      <c r="AX10" s="6" t="inlineStr"/>
       <c r="AY10" s="6" t="inlineStr"/>
-      <c r="AZ10" s="6" t="n">
+      <c r="AZ10" s="6" t="inlineStr"/>
+      <c r="BA10" s="6" t="n">
         <v>6.049326076249351e-05</v>
       </c>
-      <c r="BA10" s="6" t="n">
+      <c r="BB10" s="6" t="n">
         <v>0.0001105111199575007</v>
       </c>
-      <c r="BB10" s="6" t="n">
+      <c r="BC10" s="6" t="n">
         <v>0.01803993002684659</v>
       </c>
-      <c r="BC10" s="6" t="n">
+      <c r="BD10" s="6" t="n">
         <v>0.5941152942224324</v>
       </c>
-      <c r="BD10" s="6" t="n">
+      <c r="BE10" s="6" t="n">
         <v>2.353383259254073e-05</v>
       </c>
-      <c r="BE10" s="6" t="inlineStr">
+      <c r="BF10" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
-      </c>
-      <c r="BF10" s="6" t="n">
-        <v>1.588011757854681e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2338,12 +2353,12 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>air_11</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>db_example</t>
+          <t>db_example.h5</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
@@ -2420,82 +2435,82 @@
         </is>
       </c>
       <c r="AE11" s="6" t="n">
-        <v>1.13997658916155</v>
+        <v>1.690047086429731e-08</v>
       </c>
       <c r="AF11" s="6" t="n">
-        <v>2788.634598516189</v>
+        <v>1.13997599145268</v>
       </c>
       <c r="AG11" s="6" t="n">
-        <v>4964.221295193684</v>
+        <v>2788.635476239037</v>
       </c>
       <c r="AH11" s="6" t="n">
-        <v>541.4832460238198</v>
+        <v>4964.226510275476</v>
       </c>
       <c r="AI11" s="6" t="n">
-        <v>996.2861606245765</v>
+        <v>541.4835199055498</v>
       </c>
       <c r="AJ11" s="6" t="n">
-        <v>0.5435017241274951</v>
+        <v>996.2864330108408</v>
       </c>
       <c r="AK11" s="6" t="n">
-        <v>2829.880677394191</v>
+        <v>0.5435018504358754</v>
       </c>
       <c r="AL11" s="6" t="n">
-        <v>5110.82334805593</v>
+        <v>2829.881606796691</v>
       </c>
       <c r="AM11" s="6" t="n">
+        <v>5110.828711440128</v>
+      </c>
+      <c r="AN11" s="6" t="n">
         <v>1.18</v>
       </c>
-      <c r="AN11" s="6" t="n">
-        <v>63.92763452114919</v>
-      </c>
       <c r="AO11" s="6" t="n">
-        <v>0.003564877002303508</v>
+        <v>63.92761515757775</v>
       </c>
       <c r="AP11" s="6" t="n">
-        <v>9.839338078579741e-13</v>
+        <v>0.003564878987142887</v>
       </c>
       <c r="AQ11" s="6" t="n">
-        <v>9.884145383987038e-20</v>
+        <v>9.839403201159797e-13</v>
       </c>
       <c r="AR11" s="6" t="n">
-        <v>6.52088949979929e-15</v>
+        <v>9.88434382915308e-20</v>
       </c>
       <c r="AS11" s="6" t="n">
-        <v>5.380888428924482e-08</v>
+        <v>6.520985396615293e-15</v>
       </c>
       <c r="AT11" s="6" t="n">
-        <v>6.462941815583213e-17</v>
+        <v>5.380924041593283e-08</v>
       </c>
       <c r="AU11" s="6" t="n">
-        <v>9.714288628641342e-12</v>
+        <v>6.463037559185172e-17</v>
       </c>
       <c r="AV11" s="6" t="n">
-        <v>1.472688552595308e-05</v>
+        <v>9.714366094019999e-12</v>
       </c>
       <c r="AW11" s="6" t="n">
-        <v>0.1014823056361778</v>
+        <v>1.472698342801066e-05</v>
       </c>
       <c r="AX11" s="6" t="n">
-        <v>0.02685102906992243</v>
+        <v>0.1014825592320612</v>
       </c>
       <c r="AY11" s="6" t="n">
-        <v>0.7545338081416977</v>
+        <v>0.02685103279955788</v>
       </c>
       <c r="AZ11" s="6" t="n">
-        <v>0.1171180764470871</v>
-      </c>
-      <c r="BA11" s="6" t="inlineStr"/>
+        <v>0.7545338063026532</v>
+      </c>
+      <c r="BA11" s="6" t="n">
+        <v>0.1171178208623543</v>
+      </c>
       <c r="BB11" s="6" t="inlineStr"/>
       <c r="BC11" s="6" t="inlineStr"/>
       <c r="BD11" s="6" t="inlineStr"/>
-      <c r="BE11" s="6" t="inlineStr">
-        <is>
-          <t>Plasma gas invalid, set to STD|Invalid initial conditions database|T_0 invalid, set to STD|T_t_0 invalid, set to STD|u_0 invalid, set to STD|P_t_0 invalid, set to STD</t>
-        </is>
-      </c>
-      <c r="BF11" s="6" t="n">
-        <v>3.167299167965089e-08</v>
+      <c r="BE11" s="6" t="inlineStr"/>
+      <c r="BF11" s="6" t="inlineStr">
+        <is>
+          <t>P_t_0 not consistent with the Barker's correction, set to P_stag</t>
+        </is>
       </c>
     </row>
   </sheetData>
